--- a/data/trans_camb/P3_R-Urba-trans_camb.xlsx
+++ b/data/trans_camb/P3_R-Urba-trans_camb.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K19"/>
+  <dimension ref="A1:N20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -526,6 +526,9 @@
     <col width="14" customWidth="1" min="9" max="9"/>
     <col width="14" customWidth="1" min="10" max="10"/>
     <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -542,20 +545,23 @@
       </c>
       <c r="D1" s="3" t="n"/>
       <c r="E1" s="3" t="n"/>
-      <c r="F1" s="3" t="inlineStr">
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="inlineStr">
         <is>
           <t>Mujer</t>
         </is>
       </c>
-      <c r="G1" s="3" t="n"/>
       <c r="H1" s="3" t="n"/>
-      <c r="I1" s="3" t="inlineStr">
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="inlineStr">
         <is>
           <t>Total</t>
         </is>
       </c>
-      <c r="J1" s="3" t="n"/>
-      <c r="K1" s="3" t="n"/>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -577,32 +583,47 @@
       </c>
       <c r="F2" s="3" t="inlineStr">
         <is>
+          <t>M5/M1</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
           <t>M2/M1</t>
         </is>
       </c>
-      <c r="G2" s="3" t="inlineStr">
+      <c r="H2" s="3" t="inlineStr">
         <is>
           <t>M3/M1</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>M4/M1</t>
         </is>
       </c>
-      <c r="I2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>M5/M1</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
         <is>
           <t>M2/M1</t>
         </is>
       </c>
-      <c r="J2" s="3" t="inlineStr">
+      <c r="L2" s="3" t="inlineStr">
         <is>
           <t>M3/M1</t>
         </is>
       </c>
-      <c r="K2" s="3" t="inlineStr">
+      <c r="M2" s="3" t="inlineStr">
         <is>
           <t>M4/M1</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>M5/M1</t>
         </is>
       </c>
     </row>
@@ -618,6 +639,9 @@
       <c r="I3" s="2" t="n"/>
       <c r="J3" s="2" t="n"/>
       <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -632,47 +656,62 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>2,78</t>
+          <t>1,3</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>2,3</t>
+          <t>1,78</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>1,14</t>
+          <t>0,47</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>0,77</t>
+          <t>-5,96</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>-0,36</t>
+          <t>-0,11</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>-1,97</t>
+          <t>-0,8</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>1,71</t>
+          <t>-1,66</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>0,87</t>
+          <t>1,48</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>-0,38</t>
+          <t>0,55</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>0,47</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>-0,42</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>-1,91</t>
         </is>
       </c>
     </row>
@@ -685,47 +724,62 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-5,91; 11,71</t>
+          <t>-11,57; 11,85</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-6,85; 11,53</t>
+          <t>-10,66; 12,58</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-8,16; 10,26</t>
+          <t>-12,9; 11,12</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-6,57; 7,91</t>
+          <t>-18,09; 6,02</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-7,57; 6,61</t>
+          <t>-9,93; 8,43</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-9,74; 4,89</t>
+          <t>-10,04; 8,01</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-3,72; 6,94</t>
+          <t>-11,22; 7,37</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-4,52; 6,26</t>
+          <t>-8,46; 10,79</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>-6,27; 5,0</t>
+          <t>-6,2; 8,69</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>-6,23; 8,4</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>-7,46; 7,41</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>-10,3; 5,88</t>
         </is>
       </c>
     </row>
@@ -738,47 +792,62 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>7,89%</t>
+          <t>3,46%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>6,53%</t>
+          <t>4,75%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>3,25%</t>
+          <t>1,26%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>2,6%</t>
+          <t>-15,88%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>-1,2%</t>
+          <t>-0,37%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>-6,65%</t>
+          <t>-2,69%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>5,33%</t>
+          <t>-5,6%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>2,72%</t>
+          <t>4,99%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>-1,2%</t>
+          <t>1,64%</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>1,41%</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>-1,27%</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>-5,74%</t>
         </is>
       </c>
     </row>
@@ -791,47 +860,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-15,33; 39,35</t>
+          <t>-26,19; 36,63</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-16,71; 37,23</t>
+          <t>-24,26; 39,79</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-20,82; 34,0</t>
+          <t>-29,09; 34,47</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-20,32; 29,45</t>
+          <t>-43,23; 18,77</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-22,61; 25,24</t>
+          <t>-27,51; 32,32</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-29,49; 18,76</t>
+          <t>-29,68; 31,97</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-10,66; 23,56</t>
+          <t>-32,7; 29,25</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-12,99; 20,6</t>
+          <t>-24,42; 43,88</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>-18,17; 16,93</t>
+          <t>-16,97; 29,7</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>-17,24; 27,85</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>-20,73; 25,17</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>-27,83; 19,57</t>
         </is>
       </c>
     </row>
@@ -848,47 +932,62 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>0,86</t>
+          <t>1,0</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>0,74</t>
+          <t>3,63</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>1,08</t>
+          <t>7,5</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>1,13</t>
+          <t>2,52</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>-2,41</t>
+          <t>-0,48</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>-2,46</t>
+          <t>-3,32</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>1,05</t>
+          <t>-2,81</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>-0,74</t>
+          <t>-1,95</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>-0,55</t>
+          <t>0,15</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>0,18</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>2,42</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>0,39</t>
         </is>
       </c>
     </row>
@@ -901,47 +1000,62 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-8,76; 11,45</t>
+          <t>-10,47; 14,89</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-9,07; 11,08</t>
+          <t>-7,4; 17,96</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-9,02; 11,59</t>
+          <t>-4,03; 20,72</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-7,86; 10,09</t>
+          <t>-9,45; 15,2</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-11,05; 6,58</t>
+          <t>-11,61; 10,37</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-11,69; 6,48</t>
+          <t>-14,74; 7,13</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-6,28; 7,63</t>
+          <t>-13,56; 7,8</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-8,0; 5,33</t>
+          <t>-14,96; 10,28</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>-8,27; 6,03</t>
+          <t>-8,0; 8,64</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>-8,16; 8,41</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>-6,16; 10,71</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>-8,99; 9,32</t>
         </is>
       </c>
     </row>
@@ -954,47 +1068,62 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>1,47%</t>
+          <t>1,61%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>1,27%</t>
+          <t>5,83%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>1,84%</t>
+          <t>12,05%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>2,1%</t>
+          <t>4,05%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>-4,47%</t>
+          <t>-0,86%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>-4,57%</t>
+          <t>-5,99%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>1,87%</t>
+          <t>-5,07%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>-1,31%</t>
+          <t>-3,53%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>-0,98%</t>
+          <t>0,25%</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>0,31%</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>4,14%</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>0,67%</t>
         </is>
       </c>
     </row>
@@ -1007,47 +1136,62 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-13,98; 21,21</t>
+          <t>-15,21; 26,99</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-14,07; 20,88</t>
+          <t>-10,9; 32,08</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-14,13; 21,8</t>
+          <t>-6,12; 37,52</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-13,32; 20,03</t>
+          <t>-13,73; 28,58</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-19,41; 13,37</t>
+          <t>-19,07; 20,23</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-20,15; 13,41</t>
+          <t>-23,93; 14,31</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-10,67; 14,68</t>
+          <t>-22,38; 15,76</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-13,61; 10,3</t>
+          <t>-25,68; 20,32</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>-13,83; 11,56</t>
+          <t>-12,94; 15,7</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>-13,36; 15,43</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>-9,83; 19,64</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>-14,07; 17,46</t>
         </is>
       </c>
     </row>
@@ -1064,47 +1208,62 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>-0,26</t>
+          <t>-1,84</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>-3,9</t>
+          <t>-12,31</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>-5,62</t>
+          <t>-11,27</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>0,43</t>
+          <t>15,57</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>-0,47</t>
+          <t>-0,9</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>-2,94</t>
+          <t>-1,89</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>0,12</t>
+          <t>-4,99</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>-2,17</t>
+          <t>-9,95</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>-4,39</t>
+          <t>-1,31</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>-6,88</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>-8,22</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>3,12</t>
         </is>
       </c>
     </row>
@@ -1117,47 +1276,62 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-26,29; 25,32</t>
+          <t>-43,12; 42,56</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-24,14; 25,71</t>
+          <t>-47,4; 31,87</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-27,77; 24,57</t>
+          <t>-48,07; 34,4</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-11,77; 14,28</t>
+          <t>-11,9; 57,49</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-13,32; 12,59</t>
+          <t>-19,5; 18,25</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-16,03; 10,77</t>
+          <t>-21,83; 16,52</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-16,69; 15,28</t>
+          <t>-26,01; 14,28</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-15,9; 12,86</t>
+          <t>-30,0; 10,52</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>-19,18; 10,57</t>
+          <t>-26,23; 24,0</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>-28,08; 19,06</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>-31,83; 17,44</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>-14,66; 30,02</t>
         </is>
       </c>
     </row>
@@ -1170,47 +1344,62 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>-0,34%</t>
+          <t>-2,81%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>-5,07%</t>
+          <t>-18,82%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>-7,32%</t>
+          <t>-17,22%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>0,52%</t>
+          <t>23,8%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>-0,57%</t>
+          <t>-1,16%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>-3,53%</t>
+          <t>-2,44%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>0,15%</t>
+          <t>-6,45%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>-2,72%</t>
+          <t>-12,85%</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>-5,49%</t>
+          <t>-1,83%</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>-9,65%</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>-11,52%</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>4,38%</t>
         </is>
       </c>
     </row>
@@ -1223,47 +1412,62 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-30,46; 39,44</t>
+          <t>-54,61; 87,3</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-29,0; 39,34</t>
+          <t>-59,35; 62,5</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-32,64; 38,24</t>
+          <t>-60,12; 66,15</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-13,54; 18,55</t>
+          <t>-14,55; 187,05</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-15,4; 16,75</t>
+          <t>-23,23; 27,89</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-18,51; 13,8</t>
+          <t>-25,03; 24,71</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>-19,49; 21,37</t>
+          <t>-30,68; 20,75</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-18,75; 17,89</t>
+          <t>-35,48; 14,54</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>-22,62; 14,34</t>
+          <t>-32,76; 38,87</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>-36,61; 30,72</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>-39,26; 27,12</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>-18,12; 63,55</t>
         </is>
       </c>
     </row>
@@ -1280,47 +1484,62 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>1,62</t>
+          <t>0,87</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>1,15</t>
+          <t>1,18</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>0,47</t>
+          <t>2,1</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>0,92</t>
+          <t>-0,19</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>-1,11</t>
+          <t>-0,02</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>-2,05</t>
+          <t>-1,86</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>1,27</t>
+          <t>-2,16</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>0,02</t>
+          <t>-1,09</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>-0,7</t>
+          <t>0,37</t>
+        </is>
+      </c>
+      <c r="L16" s="2" t="inlineStr">
+        <is>
+          <t>-0,34</t>
+        </is>
+      </c>
+      <c r="M16" s="2" t="inlineStr">
+        <is>
+          <t>0,07</t>
+        </is>
+      </c>
+      <c r="N16" s="2" t="inlineStr">
+        <is>
+          <t>-0,54</t>
         </is>
       </c>
     </row>
@@ -1333,47 +1552,62 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-5,0; 8,14</t>
+          <t>-9,07; 10,04</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-5,46; 7,58</t>
+          <t>-8,34; 10,1</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-6,62; 6,99</t>
+          <t>-7,47; 11,42</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-4,26; 6,5</t>
+          <t>-10,63; 9,32</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-6,68; 4,34</t>
+          <t>-6,95; 6,37</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-8,23; 3,29</t>
+          <t>-8,95; 4,76</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>-2,62; 5,76</t>
+          <t>-9,23; 4,27</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>-4,08; 4,34</t>
+          <t>-8,33; 6,61</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>-4,98; 3,82</t>
+          <t>-5,46; 5,97</t>
+        </is>
+      </c>
+      <c r="L17" s="2" t="inlineStr">
+        <is>
+          <t>-6,01; 5,29</t>
+        </is>
+      </c>
+      <c r="M17" s="2" t="inlineStr">
+        <is>
+          <t>-6,06; 6,01</t>
+        </is>
+      </c>
+      <c r="N17" s="2" t="inlineStr">
+        <is>
+          <t>-6,67; 4,96</t>
         </is>
       </c>
     </row>
@@ -1386,47 +1620,62 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>3,26%</t>
+          <t>1,71%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>2,32%</t>
+          <t>2,34%</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>0,94%</t>
+          <t>4,15%</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>2,07%</t>
+          <t>-0,37%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>-2,49%</t>
+          <t>-0,05%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>-4,59%</t>
+          <t>-4,16%</t>
         </is>
       </c>
       <c r="I18" s="2" t="inlineStr">
         <is>
-          <t>2,71%</t>
+          <t>-4,84%</t>
         </is>
       </c>
       <c r="J18" s="2" t="inlineStr">
         <is>
-          <t>0,05%</t>
+          <t>-2,45%</t>
         </is>
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>-1,5%</t>
+          <t>0,79%</t>
+        </is>
+      </c>
+      <c r="L18" s="2" t="inlineStr">
+        <is>
+          <t>-0,73%</t>
+        </is>
+      </c>
+      <c r="M18" s="2" t="inlineStr">
+        <is>
+          <t>0,14%</t>
+        </is>
+      </c>
+      <c r="N18" s="2" t="inlineStr">
+        <is>
+          <t>-1,14%</t>
         </is>
       </c>
     </row>
@@ -1439,59 +1688,81 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-9,43; 17,77</t>
+          <t>-16,63; 21,35</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-10,14; 16,06</t>
+          <t>-15,42; 22,07</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-12,92; 15,4</t>
+          <t>-13,89; 24,45</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-9,16; 15,5</t>
+          <t>-20,24; 19,9</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-14,1; 10,32</t>
+          <t>-14,69; 15,52</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-17,49; 7,51</t>
+          <t>-18,45; 11,71</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>-5,44; 13,03</t>
+          <t>-19,56; 10,43</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>-8,31; 9,51</t>
+          <t>-17,35; 16,09</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>-10,23; 8,44</t>
+          <t>-10,52; 13,53</t>
+        </is>
+      </c>
+      <c r="L19" s="2" t="inlineStr">
+        <is>
+          <t>-12,01; 11,84</t>
+        </is>
+      </c>
+      <c r="M19" s="2" t="inlineStr">
+        <is>
+          <t>-12,03; 13,54</t>
+        </is>
+      </c>
+      <c r="N19" s="2" t="inlineStr">
+        <is>
+          <t>-13,35; 10,95</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
         </is>
       </c>
     </row>
   </sheetData>
   <mergeCells count="8">
     <mergeCell ref="A4:A7"/>
-    <mergeCell ref="C1:E1"/>
     <mergeCell ref="A8:A11"/>
-    <mergeCell ref="F1:H1"/>
     <mergeCell ref="A12:A15"/>
-    <mergeCell ref="I1:K1"/>
     <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="G1:J1"/>
+    <mergeCell ref="K1:N1"/>
     <mergeCell ref="A16:A19"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
